--- a/Bank/中医内科学/胃/Bank_呕吐.xlsx
+++ b/Bank/中医内科学/胃/Bank_呕吐.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/胃/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>下列哪项不是痰饮内停呕吐的特征</t>
   </si>
@@ -265,12 +276,18 @@
   </si>
   <si>
     <t>诊断：呕吐。辨证：痰饮内停。病证分析：病员自觉有物上涌至口，吐水，其余吐出物为所进饮食，故诊断为呕吐，因呕吐物为清水，故亦可诊断为饮证。病已10余年，脾胃受伤，脾胃虚寒，脾失健运，水饮内停，积于胃皖，胃失和降，胃气上逆，水饮及饮食随气上逆，故引起呕吐；吐水，近几日为清水，右上腹胀，胀甚则两胁皆胀，苔厚腻，脉弦，为有形之饮邪内停；背凉则加重，为阳虚饮停，饮阻胸阳，胸阳不能转行于背；口干不欲饮，苔干，为津不上承；食少，由脾胃虚寒，脾失健运及饮停湿困所致；吐出物常带酸味，有时为味精味，苔干，应考虑有饮郁化热之兆。归纳病机为水饮内停胃脱，兼有化热之兆，胃失和降，胃气上逆。治法：温化痰饮，和胃降逆，兼清热。</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,12 +602,12 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -606,6 +623,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>46</v>
+      </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
@@ -616,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -632,6 +652,9 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -642,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -658,6 +681,9 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -668,7 +694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -684,6 +710,9 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
@@ -694,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -710,6 +739,9 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
+      <c r="G5">
+        <v>46</v>
+      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -720,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -736,6 +768,9 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
+      <c r="G6">
+        <v>46</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -746,7 +781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -762,6 +797,9 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
+      <c r="G7">
+        <v>46</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -772,7 +810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -788,6 +826,9 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -798,7 +839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -814,6 +855,9 @@
       <c r="F9" t="s">
         <v>41</v>
       </c>
+      <c r="G9">
+        <v>46</v>
+      </c>
       <c r="H9" t="s">
         <v>74</v>
       </c>
@@ -827,7 +871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -843,6 +887,9 @@
       <c r="F10" t="s">
         <v>47</v>
       </c>
+      <c r="G10">
+        <v>46</v>
+      </c>
       <c r="H10" t="s">
         <v>74</v>
       </c>
@@ -856,7 +903,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -872,6 +919,9 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
+      <c r="G11">
+        <v>46</v>
+      </c>
       <c r="H11" t="s">
         <v>74</v>
       </c>
@@ -885,7 +935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -901,6 +951,9 @@
       <c r="F12" t="s">
         <v>61</v>
       </c>
+      <c r="G12">
+        <v>46</v>
+      </c>
       <c r="H12" t="s">
         <v>74</v>
       </c>
@@ -914,7 +967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -930,6 +983,9 @@
       <c r="F13" t="s">
         <v>67</v>
       </c>
+      <c r="G13">
+        <v>46</v>
+      </c>
       <c r="H13" t="s">
         <v>74</v>
       </c>
@@ -943,12 +999,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>62</v>
       </c>
+      <c r="G14">
+        <v>46</v>
+      </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -957,10 +1016,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>70</v>
       </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
       <c r="H15" t="s">
         <v>75</v>
       </c>
@@ -971,10 +1033,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>71</v>
       </c>
+      <c r="G16">
+        <v>46</v>
+      </c>
       <c r="H16" t="s">
         <v>75</v>
       </c>
@@ -985,10 +1050,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>72</v>
       </c>
+      <c r="G17">
+        <v>46</v>
+      </c>
       <c r="H17" t="s">
         <v>75</v>
       </c>
@@ -999,12 +1067,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>
+      <c r="G18">
+        <v>46</v>
+      </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J18">
         <v>1</v>
